--- a/skripsi/media/1234.xlsx
+++ b/skripsi/media/1234.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t xml:space="preserve">Mobil Baru                                        </t>
   </si>
@@ -59,19 +59,28 @@
     <t>PEKERJAAN</t>
   </si>
   <si>
+    <t>KABUPATEN</t>
+  </si>
+  <si>
+    <t>KAB. LANGKAT</t>
+  </si>
+  <si>
+    <t>KOTA BINJAI</t>
+  </si>
+  <si>
+    <t>KAB. SIMALUNGUN</t>
+  </si>
+  <si>
+    <t>KOTA PEMATANG SIANTAR</t>
+  </si>
+  <si>
+    <t>KAB. TOBA SAMOSIR</t>
+  </si>
+  <si>
+    <t>OTR</t>
+  </si>
+  <si>
     <t>TENOR</t>
-  </si>
-  <si>
-    <t>OTR</t>
-  </si>
-  <si>
-    <t>KABUPATEN</t>
-  </si>
-  <si>
-    <t>MEDAN</t>
-  </si>
-  <si>
-    <t>TEMBUNG</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,15 +120,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,237 +428,239 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>48</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>327000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>11000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>36</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>18587000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>48</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>367500000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>48</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>120000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>17202000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>9500000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>7000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>19270000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>24</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>28388000</v>
       </c>
     </row>
